--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Nov-2025/جدول التجمع يوم 10-11-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Nov-2025/جدول التجمع يوم 10-11-2025.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="795">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -2284,6 +2284,12 @@
     <t>هادي عادل</t>
   </si>
   <si>
+    <t>رانيا عبد الرحمن</t>
+  </si>
+  <si>
+    <t>من 11 م</t>
+  </si>
+  <si>
     <t>مجدي منديل</t>
   </si>
   <si>
@@ -2408,9 +2414,6 @@
   </si>
   <si>
     <t>مصطفى عثمان</t>
-  </si>
-  <si>
-    <t>رانيا عبد الرحمن</t>
   </si>
   <si>
     <t>فارس عصام الدين حسن خليفة</t>
@@ -5756,611 +5759,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{A2B3B816-86C2-433A-91EF-9D978DC043A9}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{64F37177-FBD6-434A-ADC5-A6A271E47AF0}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{F4CA5B58-50F5-4077-97CC-96B09576116B}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{B0020110-1CBE-4BF5-B8DE-C5EED9BF059D}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{A3A7A438-6855-456F-AAC3-0279AA1BD5D1}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{0C0D28CE-0E45-4818-81AA-2AEDEECFA976}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{672A5FC4-BDDB-4AFF-9BFD-7C23D5D36FFE}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{CA5F3052-105A-42D6-9F10-7E82325A552E}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{D309BE70-F978-4C1D-BD50-1B2F22CA438C}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{C647F897-06EE-473C-92C1-0E64A0120550}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{9D1D02B2-88BF-445A-B1D3-7A01DC4D0603}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{73DB6FB5-F5FB-486F-BB1F-8108F5792F61}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{A9E65D8C-AE75-4271-9025-CCC76D618413}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{B49D37C9-24A0-4433-8805-70C86B9D9425}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{B301F1CE-80BF-4E45-A436-BE60E4F56153}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{FB7EBE5F-880D-4401-A364-990D2B1A4BD6}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{36BDA47D-7835-466B-B248-9B5FC38F99FB}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{01C7936F-3CD7-4997-81CC-A7C7D3ECD08C}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{6049F408-1B42-467D-87A5-91CC32F2D9BA}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{A26ACDD2-FD92-4A12-99E8-D97ED5BC92A3}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{5C10E0A7-E928-4A14-A434-EFD5A50D3C06}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{104E6E5A-1D39-4B74-8AE2-F91EB11E8AA3}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{8C04A524-9942-4A9A-A245-C16B2D775DAD}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{8AABCAD1-6012-4EB1-B2AA-104C08E2042E}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{F4700668-2AD9-4429-A279-D32904D959C0}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{88799D61-CE1C-429E-873F-9E612241B0D8}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{8E82F47E-08DD-43BC-B1EA-4C50733CA405}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{34FC73AD-708F-4355-A26E-B1B55796DD07}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{E7CA9406-6579-444B-95FD-266B7D75C3CC}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{342C336B-9776-4E78-B610-3C5435B69435}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{E6729261-56BF-45E2-BE65-C13530DE906C}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{BBF403C4-A02F-49C9-B9FD-63D862EAE34F}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{D3B81CFB-F9DE-40B0-93CC-54D96D27F99A}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{F7E40BFE-8FEA-425B-A615-649C60FAF24C}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{A6A2308B-62F7-4F22-8308-61F09429005B}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{73A589BA-7CED-426E-B212-382D6015398F}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{4B0891BB-DAD2-4A0E-BC7E-B75FB940D01E}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{A2481568-38F7-4E39-BC2B-AD2666911904}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{63B0E3F2-E955-4FED-901C-0F37F7B06911}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{45EDEE1B-4A8C-42AA-9B42-BA8B772AF0EC}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{BB28658F-1484-4F8E-A05D-211A2741FD00}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{0126AD38-C9C3-4617-92AF-10D94B280B02}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{84B2A4A3-BB0B-4BE0-9CEB-DE29901EF11D}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{53FD45A5-7C4E-44FC-B5CC-A4E48B5833D2}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{28DA12A7-BC34-459F-A7B9-B8C8891C3EBA}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{FCCCE613-5B6D-4036-B18E-F0B5BA6BC1E8}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{4B984147-6282-452F-B5C2-FA9619AF54DD}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{0AF1CCE5-E9E5-4CF7-8FE8-5209D12F0BDD}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{6772F24E-106B-442D-BEE7-A394663B10B3}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{46278B95-5CBC-4CC9-B45B-FCD1CC6D023A}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{3B07174B-9C8C-4BAA-8AAA-EDEEDF136675}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{0A58F24F-5AD7-4737-A220-3EADBFC115D3}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{81D91307-F164-4D23-A208-4A4971FC63B8}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{C12B26C7-5DE4-45A1-AD7A-6AEE8F899A06}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{5374B157-811E-4975-B2C8-64F2FCE444BB}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{8FAEA619-07D4-44BA-9960-7DE0C2F48164}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{8FD983A3-81CC-46B6-BB50-ACF13AA0D627}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{7959D827-7336-4FE2-BB36-A2EDA7EECBF1}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{EC7BBA05-C161-404E-9A11-947BD413419B}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{E8D1F87F-9AAC-43B7-A7FF-9FC4F8EA8AD0}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{7D2FC753-6834-4EB6-994C-B41DA659C817}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{EE8DD324-40EC-40F6-97C2-E0CF48D56282}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{A8ABF4AC-78B9-49FB-9960-43B1817B8C5F}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{98051A23-3BC5-4929-8A50-AF5359E578E1}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{20B0DE12-2135-4183-9182-37E1208E5FC2}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{AA5E32F8-2433-46DD-8E9A-3B77B7F269E2}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{6FE633FA-3CBC-4353-BDE7-61961384C9DD}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{95D28866-6F20-4CCE-89F0-3381D9F1060E}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{0EC5795D-AED8-44BB-BAE1-99260918C79E}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{ADD53326-F3AC-4877-AD04-494525FD3DA9}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{AFB99558-88E2-485A-82FF-DBFD14DD927A}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{6E3470CE-AA0F-4BF6-9772-F7E2C5ADAF13}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{B65C193C-23A2-4E62-AC30-611474B48428}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{DD37AE20-F610-4C5D-B2E7-92CAF6753CD8}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{6214E0F0-98FD-4B21-B0E9-A812C31C4C10}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{50213BF7-8145-4A7D-AA52-62BE28259850}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{9A956B9B-3597-4A9C-904C-BAB044525E42}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{A8E14D65-63BB-4D33-8E9B-A306709B9DB5}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{F4F8E112-FCC2-4ADD-ACB8-3C9973BDF37D}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{3CC34042-FADC-4099-A3FB-33DBAD5D2B65}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{0B089522-CC12-4981-9515-055AD775D5E8}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{83E0DC3D-7ABF-440C-B9CB-8DC6E9C66343}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{752CAF5E-41E5-4495-A85E-9639B411328D}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{1D5A25E5-6C89-43CA-8220-2B7BC79987A3}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{07CC5453-C1A2-46D8-8105-F9F2591CDA05}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{0DE59BBC-9D93-4E74-9A0D-66714B9BFE98}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{94222F57-9DAF-4514-A0FD-CCECF0E78D38}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{92F9CC80-F0E6-4659-A111-C8EE0C38DDD4}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{1574B16F-75D2-415D-9E3F-13BD4E07A00C}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{1B74ADD8-03FD-4741-8413-059C97994C35}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{00816B11-2C3D-4471-8435-FB4AED706647}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{3A77FEA2-7176-445B-910F-C0368915D22A}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{44B4504C-1797-4CDC-B757-09F06F124797}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{7889CF1A-3AA7-4E29-A7C7-5FBAE6310BA2}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{62D4B0E1-1303-425F-9AF7-110D607C89D1}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{FB2FD44D-51F8-48D3-845D-84E58794F717}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{4AFC73CA-1A5F-4132-9BCD-F4E220EFB1BD}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{E2ADDF7F-5CC3-447C-BDCD-372C9D2CDD35}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{99AA1AED-4C5E-4ACF-ACC8-F7D04FF24F90}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{1A85D2F2-D6A6-471E-92F3-3DC733E2AED3}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{171367C3-B611-4CC8-B2AE-E385FAF46499}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{417C2755-41AF-4C22-9264-4ED837A5621B}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{733343C5-5BE9-43FA-A44B-C0015B51DBAF}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{A7072CF2-B41A-4A05-8F19-9B597C6A89E1}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{FBF5D3FE-534D-46D4-B29A-6A8B35A1D559}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{16F03B8A-0F5A-4048-B942-A4592AC8D44A}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{B3E78173-4276-4463-B8C0-4456FAF01337}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{CB4A6727-84A5-4A74-948D-C8B1C9E6B404}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{4028B72B-4714-4B75-9734-E086611ED9CD}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{E5B1CABC-332E-437A-B889-AB9ADA955352}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{A7C30AD9-8C37-4B8D-B9FB-775224282615}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{148B45B5-59DF-4317-8EA1-0D9760B9AD32}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{CE367EC3-A1CB-4701-AA5C-E1098CA6CA45}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{AB8E77BE-C15C-40F0-BAC2-389B972B3F35}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{B3A08993-2510-4EDB-A97A-1D8DC585E607}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{6F3E8593-024C-4A08-BB1A-AB6775DDB7EA}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{816AD983-F7E9-44B8-8F9D-D750E7C20691}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{1CB4FE0C-E319-44D8-A10C-2D00EA4E022D}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{B72C66EA-CC35-4AC6-ABBF-CA8335AAFED6}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{EAD50AE2-6475-4E91-A3BB-8E8E26A9762A}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{BE51EECA-A808-411E-A5A0-CDA0CDE5D46A}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{864249F1-11A5-478B-AEAF-E2E19E842B94}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{3E618171-B5CB-4851-BE17-6B1251329753}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{93BE2C78-AF8C-4E83-9102-EA883BA06969}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{32116228-75FB-4029-BC54-DD59B025B082}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{7240E75B-F66E-4E2B-9066-5CC61BABCC9D}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{63407DC8-8799-4B9E-882F-A0617A03DAA5}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{B65B81DC-B319-470C-8489-A8D44B6895A3}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{4536FC5C-6805-4551-A047-7EBC355DCB9E}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{718F74B3-A40A-4637-AB97-9E464D4F9347}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{57209992-046C-4E0D-A5F9-4BAF845935B2}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{0A68C9B5-620F-4186-97CD-BFFDDA693452}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{7FE94EE1-D80C-4AF2-91EB-9873C80417D3}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{0CEF8059-D7B2-490E-81A2-C4225C340F31}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{96C12703-C320-4268-A8BF-FD488A2B982E}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{96BA2ACA-3910-4E3A-8B21-DFBAF8C4608C}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{8BD0CABB-E737-4D7A-8573-335706FCF0FD}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{884033DA-EFA5-424E-8D70-5FAC24F7387E}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{5DA873F5-11A5-4152-BCF3-010D4B502E4F}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{1E5667B6-2E8C-4223-A76E-A1E4A3D33080}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{724F743B-7E40-44D8-8B91-0117E1F312E4}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{0704A76C-81D7-415D-A5BD-02C7BE9AF3E4}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{C51F9F1B-27A7-42AA-96C3-35EBAFC98D3A}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{17946C96-EDCF-42D2-A9AB-A089EB4CD03A}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{F2C50F2C-3E15-4CF6-AAF4-75FB7D1449D1}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{F9BBCBD1-64C0-4A0B-BE45-3845749FF8DA}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{481152FD-EA03-4A83-972B-B6A061E2F763}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{25722D15-CF28-41B1-BE46-9B675F639B2C}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{758C3BE0-7269-436C-BB8B-9CB4B5E09036}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{FD7A5562-5638-47A8-9B84-C537E6445C9E}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{EF0F0541-5270-40D5-9AC7-362F060FBD88}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{E7C36141-D818-4C9C-9D34-EFE2F6E78062}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{382A4552-E128-45CD-8E29-521126409AFF}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{A223C1CE-FD42-4417-AAA3-C7317CBF7814}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{AA871E3B-004A-419B-85D2-CEF2537AC1A6}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{2A669812-43E8-4054-BCF2-AD698FDD90E8}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{11126EC4-D2C5-41E2-BF3E-9561030843B7}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{DA614A4C-06E1-415D-AAC6-D2BBCB06EE84}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{E05A68DE-3537-41C7-8B75-29164766DBE6}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{AC12F674-EC2D-4D9D-9FBC-74402D4682DF}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{CDAF886A-225E-488F-98DB-F5E091A09517}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{98995869-A3E1-438D-B24F-E92E2192FBBF}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{5E8C9F3B-74FC-4631-A4EF-15CC3E591A76}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{7ECA495F-E0B2-4FAD-AB37-C699A310F88E}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{35470F71-CC68-4006-90A3-25D2D6F128EF}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{4FFCE582-CC7B-46C8-BD5B-6C16B20DF09E}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{AF00738A-B14A-402A-9A90-9B4BA2CBB66B}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{93842CB7-F49D-4E52-B297-BB2E69E13FAF}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{D16047A9-6D8A-4478-A66E-6AFB58553C2E}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{95F3C839-B414-44C2-8B87-79E5F9021B16}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{88A54792-E40E-4699-9098-E196EB516177}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{B53F6DA5-9754-4F88-8D3C-7EE1CAA042CF}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{B83C511B-4096-4EDE-9A6D-6908C10EC85F}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{6B88A869-D277-4154-8DC4-EE0F27D409EE}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{975AE712-E3A0-4F68-926A-1CEA9688DD44}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{5A794D1B-73FB-4FEC-9658-B23D55114B5E}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{750CC77E-905D-4A12-A51B-6690F5999F39}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{1F0BE109-2134-4E5F-9F99-03F32EB43F9F}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{DBE4C43E-9808-4664-9B52-FCF2FD79CED9}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{7D59053E-DD00-4FA0-B6CA-C224D8E79088}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{450426B5-4DE5-4455-8A86-118E86907E77}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{7DD83CAA-9B94-4012-BBF0-03E3DCC9D100}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{1131CEB6-85FE-4A73-9511-00F65F69144C}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{613F80D6-54C8-4CF5-917C-C379D2F4977D}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{B9D54D77-A07B-47D7-BFC6-E59C24950535}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{5D3BE36E-1F70-4305-9EF3-B4DE92716FEC}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{C5A8B022-95B5-46BF-AB16-EF6C87FD7415}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{CBFBE531-4DB7-4BCD-B103-113A30562709}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{6C6BF152-47ED-43F2-85EA-FDA63D5DA63C}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{E81C159C-E84E-44C6-BDA2-53572A41F93A}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{9920A41C-EDE8-449E-8BE6-5419F622BA0F}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{952F8CE1-0DC3-43D8-BF8C-13A0AA67622E}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{190B5917-5642-4282-B3BA-DE5782EB6BD7}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{439108EE-F1A6-475B-8B27-0C59F5D66111}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{D82C87F3-46D1-4295-B68A-34BDD21B33AD}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{10CE6473-03B3-423E-B051-1AAEB0720349}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{5F50B685-A626-4642-9A64-BAE19B700167}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{F76113FF-F095-4EAD-8A0E-D12D5AE904D8}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{427C9E54-26D6-451B-BE72-B796DB5F2978}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{0F0C0EA1-DD2F-482B-A1A9-D21FB4198D34}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{E84406B7-62FA-4C25-B600-E2765286C5DC}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{BFB9328F-A742-4D64-87E6-3E9824919A2C}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{1BD90734-C818-4EA1-8F9A-FD0C14615D55}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{2DDDF5A2-5A8F-4DEC-A449-2916BEAFFB99}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{C1C0B0B5-7BFD-45A4-8527-7DEAB7043316}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{DDE9E6F0-8C48-4207-8370-103A2BE3FFA1}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{1E8DAE76-CB14-4DAB-96A8-1130C37A58A1}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{25A91BA0-B80A-4585-8D60-2DF1950ACD99}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{2BCE92F9-09D8-419F-B364-A045AAB0C776}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{72DE0841-74BE-4998-A8E0-EFBA670D85BF}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{9787528D-879D-42D2-AAAC-64205A8125E9}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{FCCFD7B5-903A-4EAA-A4DD-E534C86C4790}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{A96C82CD-E73A-4297-B4D3-C7723A8013C3}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{56F89829-2EF6-4306-8CEB-E98EBA69C3BB}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{C152568A-9922-46BF-9394-29CE8E9DB692}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{95356EF8-A34F-485C-805F-42EAC931C762}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{A2FD1DFB-1059-4FEC-BA70-CF768B122474}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{D4A2E324-ECDE-4EDC-9FEE-C96BC7E4076C}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{BA7FDD9D-1B19-4FDA-A774-3AA50EF59123}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{99ED90C3-D4D0-46F4-AB75-F1F0EE24FA46}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{55731169-411D-4B9E-B358-C386A954BFF0}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{B694C580-48C8-48BD-8ECF-8FC8B36B5237}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{4026260E-A470-4949-86A5-9C4519B0BBE0}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{1C3586E4-1920-40C1-A18B-146FB8A12421}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{6E6607E5-06B3-4600-9126-3AD1EBFE0E88}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{B4BF90F5-29BE-4CD5-946F-115F8AC176A8}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{5754105E-A550-49BA-8AC9-7714334DA55A}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{2F8A026B-160D-4969-8CE2-69A08E7B583F}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{DC42034F-17EB-4FB6-B3ED-D860B6B1B9D0}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{82E6887E-DE6D-4748-8A01-8F2104E2B7C2}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{C7E15403-2236-45EB-9D73-A90050B837E5}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{22B4C0EC-CF1D-409F-AFF0-40BA959A1275}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{767435E7-DE24-490E-AC53-90CF3C9FF3A7}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{1562EA59-FC4A-402C-A397-3A6C0DE2AD6C}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{DEE48D36-E03E-42D9-9AF7-8FBAEA5959D4}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{3604931B-E04C-4092-8BFE-A7C44ACC985C}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{9749C935-540F-4D16-9671-9A5CE8295004}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{79D26123-8896-4AFA-8A60-033C6429EDAD}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{472E5C88-C9F5-4249-9AA2-9A8502622B12}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{397FDC7A-F331-4F1B-830E-5BFD8ED5C3D8}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{12CAEFD1-EC2A-4BA5-9205-3F0B955D2BB9}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{4938FBF0-F863-4B66-A68E-904942963F1D}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{5EA7A38E-128C-46A3-9761-583A0B695269}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{53448DFA-24C3-4DA7-A133-F6FD2BA09686}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{8DD820DB-E9C5-44E9-9B3D-95F2CA6FFE42}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{8F967A75-FD45-43DB-BD8D-4A94F1AD8E55}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{EAE4FEF4-8670-4AF9-B892-00B7BAE92AB6}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{5255FB46-47C2-4854-9609-5CB43055B294}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{890B453A-4240-406C-ABEE-5EF178F91C7A}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{42656C0E-D3DB-4D9F-9112-D5DBA19047DD}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{4BBB41CF-6FA3-4989-B224-DD99CC4C03B3}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{1B6D23DA-E600-45B2-A95D-823C532EB1DD}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{3792DDD5-45C4-4ADF-BCB1-796714C473AD}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{2D6053AD-EAC8-4F61-9715-BDFE74F23BE8}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{CDD3CEA5-B044-41DB-B4DA-EAD2CDEB73CD}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{D4381996-5495-448D-B29E-8CCC6EFB0B2A}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{7A2B0B8C-19A7-4539-952E-B74742054B6B}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{00CF4C76-1FBC-40E7-AA0C-A685E4911C8B}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{819301DE-DC71-4DF3-921C-8E0B7E4D3819}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{C190BD8A-AE50-46F5-85F7-F75D4CC009A2}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{F0947B8B-BB30-4C82-973B-018934BE8B2F}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{355454F3-81B2-462F-902D-10A89EB9160E}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{61660F5B-7F71-419A-941F-460FFB16842A}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{99E126AF-C483-4DC9-A468-3DE4B8C258B7}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{987517F0-0F4D-4A1D-816C-EB30DD1E7144}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{D17A18E0-7FD4-4796-9158-6649CB312DE4}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{9468DD51-9B28-46DA-8083-5162A8482E8E}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{21933DF5-0BEA-4529-B494-940BFBE0E4C9}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{09EFA1CD-DB2F-4EA3-B499-154D8002F8D1}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{70F0DE49-FCA7-4AD7-8CEF-3AB6BAB3CB0F}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{46D28B6E-EC62-489A-A797-2450A1237571}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{02F83609-8117-4B03-87BB-0CB6B905FB62}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{D98B2624-3F4E-4F72-90EE-709860057823}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{ED327EA1-982F-4914-8BA9-3D338AC9B5CD}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{A715DED6-11C5-42F3-A348-BD2B3AE9954E}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{C7F69BAD-91AA-40DE-89AA-972B8989C8D6}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{557FCCA5-615D-4E92-A628-75E44E2FD375}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{80FC72AD-F341-4A8F-9387-755983C5D4EA}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{B45BC124-90CB-4382-A63F-2CD9AD10F7D2}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{54BD6212-B1EE-4BA6-8229-474A85F1E3A5}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{5FDC29B2-0506-4526-9664-D1A8048A6A5C}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{C0088229-3D0D-44D3-9A76-644049754F6B}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{14E45E23-340C-44F1-BD8F-9A104891EB19}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{A4444208-54E3-4754-8308-401CD910286C}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{3EC52E55-010F-448C-B612-83BF9F68AE17}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{C47B94C7-7D01-4E66-9E77-98426A397590}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{44A6375D-E54A-40F3-9D7C-53DA0553C28E}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{0792A633-ACC6-42A4-A89E-2EA5E0B2E959}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{9094B6A2-EAB2-4716-9C98-062F10F3F03A}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{C21AE68D-6F48-4446-83A2-05B66B842527}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{E2AC95E6-8176-4DE8-981C-16F91368D701}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{DF4486AF-279C-48C1-A0B3-69545AF6D00D}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{CA1C4947-584B-40FD-9962-B37BC11AE0B0}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{5F21C838-D118-42A8-8DCA-B1C30A70251C}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{90EBC4D2-689F-4C35-883C-B9332655C510}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{2FCCA0CA-C033-4D30-B379-C08BF318D285}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{A26EF8A9-D03D-4E52-B8C6-71C5E64DB4FA}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{280C8E88-AE47-4054-BF4A-6ECF18241355}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{15302971-2098-4622-B7EE-E7D1C54AF3FC}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{9D075EF9-C0E5-44EC-BB15-F088B76A64D1}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{F7A2BB92-87BD-451C-9760-3AA248E93125}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{4EA00BC9-F1C8-48A2-9790-8AA5228FD743}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{D8925496-D108-4310-8AC3-73689FE3E53D}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{EAFA9E5A-2B99-4C17-97CE-36157516E5A4}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -6633,8 +6636,8 @@
   <sheetPr/>
   <dimension ref="A1:AG816"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="C723" sqref="C723"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.5"/>
@@ -40765,17 +40768,33 @@
       <c r="AF745" s="18"/>
       <c r="AG745" s="18"/>
     </row>
-    <row r="746" ht="47.25" customHeight="1" spans="1:33">
+    <row r="746" ht="43.5" customHeight="1" spans="1:33">
       <c r="A746" s="6"/>
-      <c r="B746" s="14"/>
-      <c r="C746" s="14"/>
-      <c r="D746" s="15"/>
-      <c r="E746" s="16"/>
-      <c r="F746" s="15"/>
-      <c r="G746" s="15"/>
-      <c r="H746" s="15"/>
+      <c r="B746" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C746" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D746" s="15">
+        <v>1555975766</v>
+      </c>
+      <c r="E746" s="16">
+        <v>10344308</v>
+      </c>
+      <c r="F746" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="G746" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H746" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="I746" s="20"/>
-      <c r="J746" s="19"/>
+      <c r="J746" s="19" t="s">
+        <v>749</v>
+      </c>
       <c r="K746" s="18"/>
       <c r="L746" s="18"/>
       <c r="M746" s="18"/>
@@ -40802,27 +40821,13 @@
     </row>
     <row r="747" ht="47.25" customHeight="1" spans="1:33">
       <c r="A747" s="6"/>
-      <c r="B747" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C747" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D747" s="15">
-        <v>1013447363</v>
-      </c>
-      <c r="E747" s="16">
-        <v>10331021</v>
-      </c>
-      <c r="F747" s="15" t="s">
-        <v>748</v>
-      </c>
-      <c r="G747" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="H747" s="15" t="s">
-        <v>221</v>
-      </c>
+      <c r="B747" s="14"/>
+      <c r="C747" s="14"/>
+      <c r="D747" s="15"/>
+      <c r="E747" s="16"/>
+      <c r="F747" s="15"/>
+      <c r="G747" s="15"/>
+      <c r="H747" s="15"/>
       <c r="I747" s="20"/>
       <c r="J747" s="19"/>
       <c r="K747" s="18"/>
@@ -40851,13 +40856,27 @@
     </row>
     <row r="748" ht="47.25" customHeight="1" spans="1:33">
       <c r="A748" s="6"/>
-      <c r="B748" s="14"/>
-      <c r="C748" s="14"/>
-      <c r="D748" s="15"/>
-      <c r="E748" s="16"/>
-      <c r="F748" s="15"/>
-      <c r="G748" s="15"/>
-      <c r="H748" s="15"/>
+      <c r="B748" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C748" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D748" s="15">
+        <v>1013447363</v>
+      </c>
+      <c r="E748" s="16">
+        <v>10331021</v>
+      </c>
+      <c r="F748" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="G748" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H748" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="I748" s="20"/>
       <c r="J748" s="19"/>
       <c r="K748" s="18"/>
@@ -40886,27 +40905,13 @@
     </row>
     <row r="749" ht="47.25" customHeight="1" spans="1:33">
       <c r="A749" s="6"/>
-      <c r="B749" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C749" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D749" s="15">
-        <v>1080545669</v>
-      </c>
-      <c r="E749" s="16">
-        <v>10320297</v>
-      </c>
-      <c r="F749" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="G749" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="H749" s="15" t="s">
-        <v>526</v>
-      </c>
+      <c r="B749" s="14"/>
+      <c r="C749" s="14"/>
+      <c r="D749" s="15"/>
+      <c r="E749" s="16"/>
+      <c r="F749" s="15"/>
+      <c r="G749" s="15"/>
+      <c r="H749" s="15"/>
       <c r="I749" s="20"/>
       <c r="J749" s="19"/>
       <c r="K749" s="18"/>
@@ -40942,13 +40947,13 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D750" s="15">
-        <v>1203091448</v>
+        <v>1080545669</v>
       </c>
       <c r="E750" s="16">
-        <v>10344261</v>
+        <v>10320297</v>
       </c>
       <c r="F750" s="15" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G750" s="15" t="s">
         <v>525</v>
@@ -40984,13 +40989,27 @@
     </row>
     <row r="751" ht="47.25" customHeight="1" spans="1:33">
       <c r="A751" s="6"/>
-      <c r="B751" s="14"/>
-      <c r="C751" s="14"/>
-      <c r="D751" s="15"/>
-      <c r="E751" s="16"/>
-      <c r="F751" s="15"/>
-      <c r="G751" s="15"/>
-      <c r="H751" s="15"/>
+      <c r="B751" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C751" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D751" s="15">
+        <v>1203091448</v>
+      </c>
+      <c r="E751" s="16">
+        <v>10344261</v>
+      </c>
+      <c r="F751" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="G751" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H751" s="15" t="s">
+        <v>526</v>
+      </c>
       <c r="I751" s="20"/>
       <c r="J751" s="19"/>
       <c r="K751" s="18"/>
@@ -41017,17 +41036,15 @@
       <c r="AF751" s="18"/>
       <c r="AG751" s="18"/>
     </row>
-    <row r="752" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A752" s="9">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="B752" s="10"/>
-      <c r="C752" s="10"/>
-      <c r="D752" s="10"/>
-      <c r="E752" s="11"/>
-      <c r="F752" s="10"/>
-      <c r="G752" s="10"/>
-      <c r="H752" s="10"/>
+    <row r="752" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A752" s="6"/>
+      <c r="B752" s="14"/>
+      <c r="C752" s="14"/>
+      <c r="D752" s="15"/>
+      <c r="E752" s="16"/>
+      <c r="F752" s="15"/>
+      <c r="G752" s="15"/>
+      <c r="H752" s="15"/>
       <c r="I752" s="20"/>
       <c r="J752" s="19"/>
       <c r="K752" s="18"/>
@@ -41054,29 +41071,17 @@
       <c r="AF752" s="18"/>
       <c r="AG752" s="18"/>
     </row>
-    <row r="753" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A753" s="9"/>
-      <c r="B753" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C753" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D753" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E753" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F753" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G753" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H753" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="753" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A753" s="9">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B753" s="10"/>
+      <c r="C753" s="10"/>
+      <c r="D753" s="10"/>
+      <c r="E753" s="11"/>
+      <c r="F753" s="10"/>
+      <c r="G753" s="10"/>
+      <c r="H753" s="10"/>
       <c r="I753" s="20"/>
       <c r="J753" s="19"/>
       <c r="K753" s="18"/>
@@ -41103,15 +41108,29 @@
       <c r="AF753" s="18"/>
       <c r="AG753" s="18"/>
     </row>
-    <row r="754" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A754" s="6"/>
-      <c r="B754" s="14"/>
-      <c r="C754" s="14"/>
-      <c r="D754" s="15"/>
-      <c r="E754" s="16"/>
-      <c r="F754" s="15"/>
-      <c r="G754" s="15"/>
-      <c r="H754" s="15"/>
+    <row r="754" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A754" s="9"/>
+      <c r="B754" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C754" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D754" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E754" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F754" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G754" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H754" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I754" s="20"/>
       <c r="J754" s="19"/>
       <c r="K754" s="18"/>
@@ -41140,27 +41159,13 @@
     </row>
     <row r="755" ht="47.25" customHeight="1" spans="1:33">
       <c r="A755" s="6"/>
-      <c r="B755" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C755" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D755" s="15">
-        <v>1110081480</v>
-      </c>
-      <c r="E755" s="16">
-        <v>10335056</v>
-      </c>
-      <c r="F755" s="15" t="s">
-        <v>751</v>
-      </c>
-      <c r="G755" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H755" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="B755" s="14"/>
+      <c r="C755" s="14"/>
+      <c r="D755" s="15"/>
+      <c r="E755" s="16"/>
+      <c r="F755" s="15"/>
+      <c r="G755" s="15"/>
+      <c r="H755" s="15"/>
       <c r="I755" s="20"/>
       <c r="J755" s="19"/>
       <c r="K755" s="18"/>
@@ -41196,13 +41201,13 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D756" s="15">
-        <v>1156350683</v>
+        <v>1110081480</v>
       </c>
       <c r="E756" s="16">
-        <v>10282852</v>
+        <v>10335056</v>
       </c>
       <c r="F756" s="15" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G756" s="15" t="s">
         <v>30</v>
@@ -41238,13 +41243,27 @@
     </row>
     <row r="757" ht="47.25" customHeight="1" spans="1:33">
       <c r="A757" s="6"/>
-      <c r="B757" s="14"/>
-      <c r="C757" s="14"/>
-      <c r="D757" s="15"/>
-      <c r="E757" s="16"/>
-      <c r="F757" s="15"/>
-      <c r="G757" s="15"/>
-      <c r="H757" s="15"/>
+      <c r="B757" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C757" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D757" s="15">
+        <v>1156350683</v>
+      </c>
+      <c r="E757" s="16">
+        <v>10282852</v>
+      </c>
+      <c r="F757" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="G757" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H757" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="I757" s="20"/>
       <c r="J757" s="19"/>
       <c r="K757" s="18"/>
@@ -41273,27 +41292,13 @@
     </row>
     <row r="758" ht="47.25" customHeight="1" spans="1:33">
       <c r="A758" s="6"/>
-      <c r="B758" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C758" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D758" s="15">
-        <v>1204888981</v>
-      </c>
-      <c r="E758" s="16">
-        <v>10304619</v>
-      </c>
-      <c r="F758" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="G758" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H758" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="B758" s="14"/>
+      <c r="C758" s="14"/>
+      <c r="D758" s="15"/>
+      <c r="E758" s="16"/>
+      <c r="F758" s="15"/>
+      <c r="G758" s="15"/>
+      <c r="H758" s="15"/>
       <c r="I758" s="20"/>
       <c r="J758" s="19"/>
       <c r="K758" s="18"/>
@@ -41322,13 +41327,27 @@
     </row>
     <row r="759" ht="47.25" customHeight="1" spans="1:33">
       <c r="A759" s="6"/>
-      <c r="B759" s="14"/>
-      <c r="C759" s="14"/>
-      <c r="D759" s="15"/>
-      <c r="E759" s="16"/>
-      <c r="F759" s="15"/>
-      <c r="G759" s="15"/>
-      <c r="H759" s="15"/>
+      <c r="B759" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C759" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D759" s="15">
+        <v>1204888981</v>
+      </c>
+      <c r="E759" s="16">
+        <v>10304619</v>
+      </c>
+      <c r="F759" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="G759" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H759" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="I759" s="20"/>
       <c r="J759" s="19"/>
       <c r="K759" s="18"/>
@@ -41357,27 +41376,13 @@
     </row>
     <row r="760" ht="47.25" customHeight="1" spans="1:33">
       <c r="A760" s="6"/>
-      <c r="B760" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C760" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D760" s="15">
-        <v>1001519732</v>
-      </c>
-      <c r="E760" s="16">
-        <v>10326463</v>
-      </c>
-      <c r="F760" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="G760" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H760" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="B760" s="14"/>
+      <c r="C760" s="14"/>
+      <c r="D760" s="15"/>
+      <c r="E760" s="16"/>
+      <c r="F760" s="15"/>
+      <c r="G760" s="15"/>
+      <c r="H760" s="15"/>
       <c r="I760" s="20"/>
       <c r="J760" s="19"/>
       <c r="K760" s="18"/>
@@ -41413,13 +41418,13 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D761" s="15">
-        <v>1000136922</v>
+        <v>1001519732</v>
       </c>
       <c r="E761" s="16">
-        <v>10330150</v>
+        <v>10326463</v>
       </c>
       <c r="F761" s="15" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G761" s="15" t="s">
         <v>15</v>
@@ -41455,13 +41460,27 @@
     </row>
     <row r="762" ht="47.25" customHeight="1" spans="1:33">
       <c r="A762" s="6"/>
-      <c r="B762" s="14"/>
-      <c r="C762" s="14"/>
-      <c r="D762" s="15"/>
-      <c r="E762" s="16"/>
-      <c r="F762" s="15"/>
-      <c r="G762" s="15"/>
-      <c r="H762" s="15"/>
+      <c r="B762" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C762" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D762" s="15">
+        <v>1000136922</v>
+      </c>
+      <c r="E762" s="16">
+        <v>10330150</v>
+      </c>
+      <c r="F762" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="G762" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H762" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I762" s="20"/>
       <c r="J762" s="19"/>
       <c r="K762" s="18"/>
@@ -41490,27 +41509,13 @@
     </row>
     <row r="763" ht="47.25" customHeight="1" spans="1:33">
       <c r="A763" s="6"/>
-      <c r="B763" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C763" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D763" s="15">
-        <v>1067631730</v>
-      </c>
-      <c r="E763" s="16">
-        <v>10315965</v>
-      </c>
-      <c r="F763" s="15" t="s">
-        <v>756</v>
-      </c>
-      <c r="G763" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H763" s="15" t="s">
-        <v>323</v>
-      </c>
+      <c r="B763" s="14"/>
+      <c r="C763" s="14"/>
+      <c r="D763" s="15"/>
+      <c r="E763" s="16"/>
+      <c r="F763" s="15"/>
+      <c r="G763" s="15"/>
+      <c r="H763" s="15"/>
       <c r="I763" s="20"/>
       <c r="J763" s="19"/>
       <c r="K763" s="18"/>
@@ -41546,19 +41551,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D764" s="15">
-        <v>1127552530</v>
+        <v>1067631730</v>
       </c>
       <c r="E764" s="16">
-        <v>10314763</v>
+        <v>10315965</v>
       </c>
       <c r="F764" s="15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G764" s="15" t="s">
         <v>151</v>
       </c>
       <c r="H764" s="15" t="s">
-        <v>152</v>
+        <v>323</v>
       </c>
       <c r="I764" s="20"/>
       <c r="J764" s="19"/>
@@ -41588,13 +41593,27 @@
     </row>
     <row r="765" ht="47.25" customHeight="1" spans="1:33">
       <c r="A765" s="6"/>
-      <c r="B765" s="14"/>
-      <c r="C765" s="14"/>
-      <c r="D765" s="15"/>
-      <c r="E765" s="16"/>
-      <c r="F765" s="15"/>
-      <c r="G765" s="15"/>
-      <c r="H765" s="15"/>
+      <c r="B765" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C765" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D765" s="15">
+        <v>1127552530</v>
+      </c>
+      <c r="E765" s="16">
+        <v>10314763</v>
+      </c>
+      <c r="F765" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="G765" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H765" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="I765" s="20"/>
       <c r="J765" s="19"/>
       <c r="K765" s="18"/>
@@ -41623,27 +41642,13 @@
     </row>
     <row r="766" ht="47.25" customHeight="1" spans="1:33">
       <c r="A766" s="6"/>
-      <c r="B766" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C766" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D766" s="15">
-        <v>0</v>
-      </c>
-      <c r="E766" s="16">
-        <v>10334359</v>
-      </c>
-      <c r="F766" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="G766" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H766" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B766" s="14"/>
+      <c r="C766" s="14"/>
+      <c r="D766" s="15"/>
+      <c r="E766" s="16"/>
+      <c r="F766" s="15"/>
+      <c r="G766" s="15"/>
+      <c r="H766" s="15"/>
       <c r="I766" s="20"/>
       <c r="J766" s="19"/>
       <c r="K766" s="18"/>
@@ -41672,13 +41677,27 @@
     </row>
     <row r="767" ht="47.25" customHeight="1" spans="1:33">
       <c r="A767" s="6"/>
-      <c r="B767" s="14"/>
-      <c r="C767" s="14"/>
-      <c r="D767" s="15"/>
-      <c r="E767" s="16"/>
-      <c r="F767" s="15"/>
-      <c r="G767" s="15"/>
-      <c r="H767" s="15"/>
+      <c r="B767" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C767" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D767" s="15">
+        <v>0</v>
+      </c>
+      <c r="E767" s="16">
+        <v>10334359</v>
+      </c>
+      <c r="F767" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="G767" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H767" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="I767" s="20"/>
       <c r="J767" s="19"/>
       <c r="K767" s="18"/>
@@ -41707,27 +41726,13 @@
     </row>
     <row r="768" ht="47.25" customHeight="1" spans="1:33">
       <c r="A768" s="6"/>
-      <c r="B768" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C768" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D768" s="15">
-        <v>1095882923</v>
-      </c>
-      <c r="E768" s="16">
-        <v>10311333</v>
-      </c>
-      <c r="F768" s="15" t="s">
-        <v>759</v>
-      </c>
-      <c r="G768" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="H768" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="B768" s="14"/>
+      <c r="C768" s="14"/>
+      <c r="D768" s="15"/>
+      <c r="E768" s="16"/>
+      <c r="F768" s="15"/>
+      <c r="G768" s="15"/>
+      <c r="H768" s="15"/>
       <c r="I768" s="20"/>
       <c r="J768" s="19"/>
       <c r="K768" s="18"/>
@@ -41763,19 +41768,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D769" s="15">
-        <v>1013260200</v>
+        <v>1095882923</v>
       </c>
       <c r="E769" s="16">
-        <v>10332515</v>
+        <v>10311333</v>
       </c>
       <c r="F769" s="15" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G769" s="15" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="H769" s="15" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="I769" s="20"/>
       <c r="J769" s="19"/>
@@ -41812,13 +41817,13 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D770" s="15">
-        <v>1505499876</v>
+        <v>1013260200</v>
       </c>
       <c r="E770" s="16">
-        <v>10333845</v>
+        <v>10332515</v>
       </c>
       <c r="F770" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G770" s="15" t="s">
         <v>12</v>
@@ -41861,13 +41866,13 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D771" s="15">
-        <v>1553989783</v>
+        <v>1505499876</v>
       </c>
       <c r="E771" s="16">
-        <v>10335120</v>
+        <v>10333845</v>
       </c>
       <c r="F771" s="15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G771" s="15" t="s">
         <v>12</v>
@@ -41910,13 +41915,13 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D772" s="15">
-        <v>1016789685</v>
+        <v>1553989783</v>
       </c>
       <c r="E772" s="16">
-        <v>10335024</v>
+        <v>10335120</v>
       </c>
       <c r="F772" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G772" s="15" t="s">
         <v>12</v>
@@ -41952,13 +41957,27 @@
     </row>
     <row r="773" ht="47.25" customHeight="1" spans="1:33">
       <c r="A773" s="6"/>
-      <c r="B773" s="14"/>
-      <c r="C773" s="14"/>
-      <c r="D773" s="15"/>
-      <c r="E773" s="16"/>
-      <c r="F773" s="15"/>
-      <c r="G773" s="15"/>
-      <c r="H773" s="15"/>
+      <c r="B773" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C773" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D773" s="15">
+        <v>1016789685</v>
+      </c>
+      <c r="E773" s="16">
+        <v>10335024</v>
+      </c>
+      <c r="F773" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="G773" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H773" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I773" s="20"/>
       <c r="J773" s="19"/>
       <c r="K773" s="18"/>
@@ -41987,27 +42006,13 @@
     </row>
     <row r="774" ht="47.25" customHeight="1" spans="1:33">
       <c r="A774" s="6"/>
-      <c r="B774" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C774" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D774" s="15">
-        <v>1126644481</v>
-      </c>
-      <c r="E774" s="16">
-        <v>10304629</v>
-      </c>
-      <c r="F774" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="G774" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="H774" s="15" t="s">
-        <v>230</v>
-      </c>
+      <c r="B774" s="14"/>
+      <c r="C774" s="14"/>
+      <c r="D774" s="15"/>
+      <c r="E774" s="16"/>
+      <c r="F774" s="15"/>
+      <c r="G774" s="15"/>
+      <c r="H774" s="15"/>
       <c r="I774" s="20"/>
       <c r="J774" s="19"/>
       <c r="K774" s="18"/>
@@ -42042,11 +42047,11 @@
       <c r="C775" s="14">
         <v>0.291666666666667</v>
       </c>
-      <c r="D775" s="15" t="s">
-        <v>765</v>
+      <c r="D775" s="15">
+        <v>1126644481</v>
       </c>
       <c r="E775" s="16">
-        <v>10332513</v>
+        <v>10304629</v>
       </c>
       <c r="F775" s="15" t="s">
         <v>766</v>
@@ -42055,7 +42060,7 @@
         <v>218</v>
       </c>
       <c r="H775" s="15" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="I775" s="20"/>
       <c r="J775" s="19"/>
@@ -42085,13 +42090,27 @@
     </row>
     <row r="776" ht="47.25" customHeight="1" spans="1:33">
       <c r="A776" s="6"/>
-      <c r="B776" s="14"/>
-      <c r="C776" s="14"/>
-      <c r="D776" s="15"/>
-      <c r="E776" s="16"/>
-      <c r="F776" s="15"/>
-      <c r="G776" s="15"/>
-      <c r="H776" s="15"/>
+      <c r="B776" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C776" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D776" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="E776" s="16">
+        <v>10332513</v>
+      </c>
+      <c r="F776" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="G776" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H776" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="I776" s="20"/>
       <c r="J776" s="19"/>
       <c r="K776" s="18"/>
@@ -42118,29 +42137,15 @@
       <c r="AF776" s="18"/>
       <c r="AG776" s="18"/>
     </row>
-    <row r="777" ht="46.9" customHeight="1" spans="1:33">
+    <row r="777" ht="47.25" customHeight="1" spans="1:33">
       <c r="A777" s="6"/>
-      <c r="B777" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C777" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D777" s="15">
-        <v>1008797315</v>
-      </c>
-      <c r="E777" s="16">
-        <v>10334423</v>
-      </c>
-      <c r="F777" s="15" t="s">
-        <v>767</v>
-      </c>
-      <c r="G777" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="H777" s="15" t="s">
-        <v>526</v>
-      </c>
+      <c r="B777" s="14"/>
+      <c r="C777" s="14"/>
+      <c r="D777" s="15"/>
+      <c r="E777" s="16"/>
+      <c r="F777" s="15"/>
+      <c r="G777" s="15"/>
+      <c r="H777" s="15"/>
       <c r="I777" s="20"/>
       <c r="J777" s="19"/>
       <c r="K777" s="18"/>
@@ -42169,13 +42174,27 @@
     </row>
     <row r="778" ht="46.9" customHeight="1" spans="1:33">
       <c r="A778" s="6"/>
-      <c r="B778" s="14"/>
-      <c r="C778" s="14"/>
-      <c r="D778" s="15"/>
-      <c r="E778" s="16"/>
-      <c r="F778" s="15"/>
-      <c r="G778" s="15"/>
-      <c r="H778" s="15"/>
+      <c r="B778" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C778" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D778" s="15">
+        <v>1008797315</v>
+      </c>
+      <c r="E778" s="16">
+        <v>10334423</v>
+      </c>
+      <c r="F778" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="G778" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H778" s="15" t="s">
+        <v>526</v>
+      </c>
       <c r="I778" s="20"/>
       <c r="J778" s="19"/>
       <c r="K778" s="18"/>
@@ -42202,17 +42221,15 @@
       <c r="AF778" s="18"/>
       <c r="AG778" s="18"/>
     </row>
-    <row r="779" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A779" s="9">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="B779" s="10"/>
-      <c r="C779" s="10"/>
-      <c r="D779" s="10"/>
-      <c r="E779" s="11"/>
-      <c r="F779" s="10"/>
-      <c r="G779" s="10"/>
-      <c r="H779" s="10"/>
+    <row r="779" ht="46.9" customHeight="1" spans="1:33">
+      <c r="A779" s="6"/>
+      <c r="B779" s="14"/>
+      <c r="C779" s="14"/>
+      <c r="D779" s="15"/>
+      <c r="E779" s="16"/>
+      <c r="F779" s="15"/>
+      <c r="G779" s="15"/>
+      <c r="H779" s="15"/>
       <c r="I779" s="20"/>
       <c r="J779" s="19"/>
       <c r="K779" s="18"/>
@@ -42239,29 +42256,17 @@
       <c r="AF779" s="18"/>
       <c r="AG779" s="18"/>
     </row>
-    <row r="780" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A780" s="12"/>
-      <c r="B780" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C780" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D780" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E780" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F780" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G780" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H780" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="780" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A780" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="B780" s="10"/>
+      <c r="C780" s="10"/>
+      <c r="D780" s="10"/>
+      <c r="E780" s="11"/>
+      <c r="F780" s="10"/>
+      <c r="G780" s="10"/>
+      <c r="H780" s="10"/>
       <c r="I780" s="20"/>
       <c r="J780" s="19"/>
       <c r="K780" s="18"/>
@@ -42289,14 +42294,28 @@
       <c r="AG780" s="18"/>
     </row>
     <row r="781" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A781" s="6"/>
-      <c r="B781" s="14"/>
-      <c r="C781" s="14"/>
-      <c r="D781" s="15"/>
-      <c r="E781" s="16"/>
-      <c r="F781" s="15"/>
-      <c r="G781" s="15"/>
-      <c r="H781" s="15"/>
+      <c r="A781" s="12"/>
+      <c r="B781" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C781" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D781" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E781" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F781" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G781" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H781" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I781" s="20"/>
       <c r="J781" s="19"/>
       <c r="K781" s="18"/>
@@ -42325,27 +42344,13 @@
     </row>
     <row r="782" ht="43.5" customHeight="1" spans="1:33">
       <c r="A782" s="6"/>
-      <c r="B782" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C782" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D782" s="15">
-        <v>0</v>
-      </c>
-      <c r="E782" s="16">
-        <v>10345547</v>
-      </c>
-      <c r="F782" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G782" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="H782" s="15" t="s">
-        <v>644</v>
-      </c>
+      <c r="B782" s="14"/>
+      <c r="C782" s="14"/>
+      <c r="D782" s="15"/>
+      <c r="E782" s="16"/>
+      <c r="F782" s="15"/>
+      <c r="G782" s="15"/>
+      <c r="H782" s="15"/>
       <c r="I782" s="20"/>
       <c r="J782" s="19"/>
       <c r="K782" s="18"/>
@@ -42374,13 +42379,27 @@
     </row>
     <row r="783" ht="43.5" customHeight="1" spans="1:33">
       <c r="A783" s="6"/>
-      <c r="B783" s="14"/>
-      <c r="C783" s="14"/>
-      <c r="D783" s="15"/>
-      <c r="E783" s="16"/>
-      <c r="F783" s="15"/>
-      <c r="G783" s="15"/>
-      <c r="H783" s="15"/>
+      <c r="B783" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C783" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D783" s="15">
+        <v>0</v>
+      </c>
+      <c r="E783" s="16">
+        <v>10345547</v>
+      </c>
+      <c r="F783" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G783" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="H783" s="15" t="s">
+        <v>644</v>
+      </c>
       <c r="I783" s="20"/>
       <c r="J783" s="19"/>
       <c r="K783" s="18"/>
@@ -42409,27 +42428,13 @@
     </row>
     <row r="784" ht="43.5" customHeight="1" spans="1:33">
       <c r="A784" s="6"/>
-      <c r="B784" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C784" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D784" s="15">
-        <v>1129574541</v>
-      </c>
-      <c r="E784" s="16">
-        <v>10344864</v>
-      </c>
-      <c r="F784" s="15" t="s">
-        <v>768</v>
-      </c>
-      <c r="G784" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H784" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="B784" s="14"/>
+      <c r="C784" s="14"/>
+      <c r="D784" s="15"/>
+      <c r="E784" s="16"/>
+      <c r="F784" s="15"/>
+      <c r="G784" s="15"/>
+      <c r="H784" s="15"/>
       <c r="I784" s="20"/>
       <c r="J784" s="19"/>
       <c r="K784" s="18"/>
@@ -42464,11 +42469,11 @@
       <c r="C785" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D785" s="15" t="s">
-        <v>769</v>
+      <c r="D785" s="15">
+        <v>1129574541</v>
       </c>
       <c r="E785" s="16">
-        <v>10331191</v>
+        <v>10344864</v>
       </c>
       <c r="F785" s="15" t="s">
         <v>770</v>
@@ -42507,13 +42512,27 @@
     </row>
     <row r="786" ht="43.5" customHeight="1" spans="1:33">
       <c r="A786" s="6"/>
-      <c r="B786" s="14"/>
-      <c r="C786" s="14"/>
-      <c r="D786" s="15"/>
-      <c r="E786" s="16"/>
-      <c r="F786" s="15"/>
-      <c r="G786" s="15"/>
-      <c r="H786" s="15"/>
+      <c r="B786" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C786" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D786" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="E786" s="16">
+        <v>10331191</v>
+      </c>
+      <c r="F786" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="G786" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H786" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="I786" s="20"/>
       <c r="J786" s="19"/>
       <c r="K786" s="18"/>
@@ -42542,27 +42561,13 @@
     </row>
     <row r="787" ht="43.5" customHeight="1" spans="1:33">
       <c r="A787" s="6"/>
-      <c r="B787" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C787" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D787" s="15">
-        <v>1021293302</v>
-      </c>
-      <c r="E787" s="16">
-        <v>10344866</v>
-      </c>
-      <c r="F787" s="15" t="s">
-        <v>771</v>
-      </c>
-      <c r="G787" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H787" s="15" t="s">
-        <v>657</v>
-      </c>
+      <c r="B787" s="14"/>
+      <c r="C787" s="14"/>
+      <c r="D787" s="15"/>
+      <c r="E787" s="16"/>
+      <c r="F787" s="15"/>
+      <c r="G787" s="15"/>
+      <c r="H787" s="15"/>
       <c r="I787" s="20"/>
       <c r="J787" s="19"/>
       <c r="K787" s="18"/>
@@ -42598,19 +42603,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D788" s="15">
-        <v>1122706070</v>
+        <v>1021293302</v>
       </c>
       <c r="E788" s="16">
-        <v>10344863</v>
+        <v>10344866</v>
       </c>
       <c r="F788" s="15" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G788" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H788" s="15" t="s">
-        <v>132</v>
+        <v>657</v>
       </c>
       <c r="I788" s="20"/>
       <c r="J788" s="19"/>
@@ -42647,19 +42652,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D789" s="15">
-        <v>1095617866</v>
+        <v>1122706070</v>
       </c>
       <c r="E789" s="16">
-        <v>10344856</v>
+        <v>10344863</v>
       </c>
       <c r="F789" s="15" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G789" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H789" s="15" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I789" s="20"/>
       <c r="J789" s="19"/>
@@ -42689,13 +42694,27 @@
     </row>
     <row r="790" ht="43.5" customHeight="1" spans="1:33">
       <c r="A790" s="6"/>
-      <c r="B790" s="14"/>
-      <c r="C790" s="14"/>
-      <c r="D790" s="15"/>
-      <c r="E790" s="16"/>
-      <c r="F790" s="15"/>
-      <c r="G790" s="15"/>
-      <c r="H790" s="15"/>
+      <c r="B790" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C790" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D790" s="15">
+        <v>1095617866</v>
+      </c>
+      <c r="E790" s="16">
+        <v>10344856</v>
+      </c>
+      <c r="F790" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="G790" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H790" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="I790" s="20"/>
       <c r="J790" s="19"/>
       <c r="K790" s="18"/>
@@ -42724,27 +42743,13 @@
     </row>
     <row r="791" ht="43.5" customHeight="1" spans="1:33">
       <c r="A791" s="6"/>
-      <c r="B791" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C791" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D791" s="15">
-        <v>1144462771</v>
-      </c>
-      <c r="E791" s="16">
-        <v>10344752</v>
-      </c>
-      <c r="F791" s="15" t="s">
-        <v>774</v>
-      </c>
-      <c r="G791" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H791" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="B791" s="14"/>
+      <c r="C791" s="14"/>
+      <c r="D791" s="15"/>
+      <c r="E791" s="16"/>
+      <c r="F791" s="15"/>
+      <c r="G791" s="15"/>
+      <c r="H791" s="15"/>
       <c r="I791" s="20"/>
       <c r="J791" s="19"/>
       <c r="K791" s="18"/>
@@ -42780,19 +42785,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D792" s="15">
-        <v>1552456793</v>
+        <v>1144462771</v>
       </c>
       <c r="E792" s="16">
-        <v>10344749</v>
+        <v>10344752</v>
       </c>
       <c r="F792" s="15" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G792" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H792" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I792" s="20"/>
       <c r="J792" s="19"/>
@@ -42829,19 +42834,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D793" s="15">
-        <v>1093443771</v>
+        <v>1552456793</v>
       </c>
       <c r="E793" s="16">
-        <v>10344757</v>
+        <v>10344749</v>
       </c>
       <c r="F793" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G793" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H793" s="15" t="s">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="I793" s="20"/>
       <c r="J793" s="19"/>
@@ -42878,19 +42883,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D794" s="15">
-        <v>1095204998</v>
+        <v>1093443771</v>
       </c>
       <c r="E794" s="16">
-        <v>10344242</v>
+        <v>10344757</v>
       </c>
       <c r="F794" s="15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G794" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H794" s="15" t="s">
-        <v>24</v>
+        <v>430</v>
       </c>
       <c r="I794" s="20"/>
       <c r="J794" s="19"/>
@@ -42927,19 +42932,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D795" s="15">
-        <v>1060392059</v>
+        <v>1095204998</v>
       </c>
       <c r="E795" s="16">
-        <v>10344236</v>
+        <v>10344242</v>
       </c>
       <c r="F795" s="15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G795" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H795" s="15" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="I795" s="20"/>
       <c r="J795" s="19"/>
@@ -42976,19 +42981,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D796" s="15">
-        <v>1117228732</v>
+        <v>1060392059</v>
       </c>
       <c r="E796" s="16">
-        <v>10285481</v>
+        <v>10344236</v>
       </c>
       <c r="F796" s="15" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G796" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H796" s="15" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="I796" s="20"/>
       <c r="J796" s="19"/>
@@ -43018,13 +43023,27 @@
     </row>
     <row r="797" ht="43.5" customHeight="1" spans="1:33">
       <c r="A797" s="6"/>
-      <c r="B797" s="14"/>
-      <c r="C797" s="14"/>
-      <c r="D797" s="15"/>
-      <c r="E797" s="16"/>
-      <c r="F797" s="15"/>
-      <c r="G797" s="15"/>
-      <c r="H797" s="15"/>
+      <c r="B797" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C797" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D797" s="15">
+        <v>1117228732</v>
+      </c>
+      <c r="E797" s="16">
+        <v>10285481</v>
+      </c>
+      <c r="F797" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="G797" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H797" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="I797" s="20"/>
       <c r="J797" s="19"/>
       <c r="K797" s="18"/>
@@ -43053,27 +43072,13 @@
     </row>
     <row r="798" ht="43.5" customHeight="1" spans="1:33">
       <c r="A798" s="6"/>
-      <c r="B798" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C798" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D798" s="15">
-        <v>1023850840</v>
-      </c>
-      <c r="E798" s="16">
-        <v>10344883</v>
-      </c>
-      <c r="F798" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="G798" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H798" s="15" t="s">
-        <v>194</v>
-      </c>
+      <c r="B798" s="14"/>
+      <c r="C798" s="14"/>
+      <c r="D798" s="15"/>
+      <c r="E798" s="16"/>
+      <c r="F798" s="15"/>
+      <c r="G798" s="15"/>
+      <c r="H798" s="15"/>
       <c r="I798" s="20"/>
       <c r="J798" s="19"/>
       <c r="K798" s="18"/>
@@ -43109,19 +43114,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D799" s="15">
-        <v>1555493119</v>
+        <v>1023850840</v>
       </c>
       <c r="E799" s="16">
-        <v>10344901</v>
+        <v>10344883</v>
       </c>
       <c r="F799" s="15" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G799" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H799" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I799" s="20"/>
       <c r="J799" s="19"/>
@@ -43158,19 +43163,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D800" s="15">
-        <v>1099361043</v>
+        <v>1555493119</v>
       </c>
       <c r="E800" s="16">
-        <v>10344884</v>
+        <v>10344901</v>
       </c>
       <c r="F800" s="15" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G800" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H800" s="15" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
       <c r="I800" s="20"/>
       <c r="J800" s="19"/>
@@ -43207,19 +43212,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D801" s="15">
-        <v>1153210480</v>
+        <v>1099361043</v>
       </c>
       <c r="E801" s="16">
-        <v>10344865</v>
+        <v>10344884</v>
       </c>
       <c r="F801" s="15" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G801" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H801" s="15" t="s">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="I801" s="20"/>
       <c r="J801" s="19"/>
@@ -43256,13 +43261,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D802" s="15">
-        <v>1066953383</v>
+        <v>1153210480</v>
       </c>
       <c r="E802" s="16">
-        <v>10344858</v>
+        <v>10344865</v>
       </c>
       <c r="F802" s="15" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G802" s="15" t="s">
         <v>26</v>
@@ -43305,19 +43310,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D803" s="15">
-        <v>1505849880</v>
+        <v>1066953383</v>
       </c>
       <c r="E803" s="16">
-        <v>10344860</v>
+        <v>10344858</v>
       </c>
       <c r="F803" s="15" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G803" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H803" s="15" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="I803" s="20"/>
       <c r="J803" s="19"/>
@@ -43354,19 +43359,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D804" s="15">
-        <v>1145149773</v>
+        <v>1505849880</v>
       </c>
       <c r="E804" s="16">
-        <v>10344235</v>
+        <v>10344860</v>
       </c>
       <c r="F804" s="15" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G804" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H804" s="15" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="I804" s="20"/>
       <c r="J804" s="19"/>
@@ -43403,13 +43408,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D805" s="15">
-        <v>1551584488</v>
+        <v>1145149773</v>
       </c>
       <c r="E805" s="16">
-        <v>10344250</v>
+        <v>10344235</v>
       </c>
       <c r="F805" s="15" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G805" s="15" t="s">
         <v>26</v>
@@ -43445,13 +43450,27 @@
     </row>
     <row r="806" ht="43.5" customHeight="1" spans="1:33">
       <c r="A806" s="6"/>
-      <c r="B806" s="14"/>
-      <c r="C806" s="14"/>
-      <c r="D806" s="15"/>
-      <c r="E806" s="16"/>
-      <c r="F806" s="15"/>
-      <c r="G806" s="15"/>
-      <c r="H806" s="15"/>
+      <c r="B806" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C806" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D806" s="15">
+        <v>1551584488</v>
+      </c>
+      <c r="E806" s="16">
+        <v>10344250</v>
+      </c>
+      <c r="F806" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="G806" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H806" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="I806" s="20"/>
       <c r="J806" s="19"/>
       <c r="K806" s="18"/>
@@ -43480,27 +43499,13 @@
     </row>
     <row r="807" ht="43.5" customHeight="1" spans="1:33">
       <c r="A807" s="6"/>
-      <c r="B807" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C807" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D807" s="15">
-        <v>1090642201</v>
-      </c>
-      <c r="E807" s="16">
-        <v>10344770</v>
-      </c>
-      <c r="F807" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="G807" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="H807" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="B807" s="14"/>
+      <c r="C807" s="14"/>
+      <c r="D807" s="15"/>
+      <c r="E807" s="16"/>
+      <c r="F807" s="15"/>
+      <c r="G807" s="15"/>
+      <c r="H807" s="15"/>
       <c r="I807" s="20"/>
       <c r="J807" s="19"/>
       <c r="K807" s="18"/>
@@ -43536,19 +43541,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D808" s="15">
-        <v>1509946439</v>
+        <v>1090642201</v>
       </c>
       <c r="E808" s="16">
-        <v>10344252</v>
+        <v>10344770</v>
       </c>
       <c r="F808" s="15" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G808" s="15" t="s">
         <v>209</v>
       </c>
       <c r="H808" s="15" t="s">
-        <v>510</v>
+        <v>210</v>
       </c>
       <c r="I808" s="20"/>
       <c r="J808" s="19"/>
@@ -43585,19 +43590,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D809" s="15">
-        <v>1555975766</v>
+        <v>1509946439</v>
       </c>
       <c r="E809" s="16">
-        <v>10344308</v>
+        <v>10344252</v>
       </c>
       <c r="F809" s="15" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G809" s="15" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="H809" s="15" t="s">
-        <v>13</v>
+        <v>510</v>
       </c>
       <c r="I809" s="20"/>
       <c r="J809" s="19"/>
@@ -43640,7 +43645,7 @@
         <v>10292490</v>
       </c>
       <c r="F810" s="15" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G810" s="15" t="s">
         <v>12</v>
@@ -43724,7 +43729,7 @@
         <v>10344240</v>
       </c>
       <c r="F812" s="15" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G812" s="15" t="s">
         <v>218</v>
@@ -43808,7 +43813,7 @@
         <v>10345744</v>
       </c>
       <c r="F814" s="15" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G814" s="15" t="s">
         <v>525</v>
@@ -43929,8 +43934,8 @@
     <mergeCell ref="A653:A654"/>
     <mergeCell ref="A662:A663"/>
     <mergeCell ref="A697:A698"/>
-    <mergeCell ref="A752:A753"/>
-    <mergeCell ref="A779:A780"/>
+    <mergeCell ref="A753:A754"/>
+    <mergeCell ref="A780:A781"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
